--- a/medicine/Enfance/Park_Hyun-min/Park_Hyun-min.xlsx
+++ b/medicine/Enfance/Park_Hyun-min/Park_Hyun-min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Park Hyun-min, né en 1986, est un auteur et illustrateur de livres jeunesse sud-coréen.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son premier album, Tellement de neige (original : eomcheongnan nun), a obtenu la mention spéciale du Prix BolognaRagazzi dans la catégorie Opera Prima (Première œuvre) à la foire du livre de jeunesse de Bologne en 2021[1],[2]. Cet album a également fait partie d’une sélection coréenne pour Silent Books 2023 de l’Union Internationale du livre de jeunesse (IBBY)[3]. 
-Pour Un vol dans une ville (original : dosibihaeng), Park a été retenu pour l’« Illustrateur de l’année » à la foire du livre de jeunesse de Bologne en 2022 et cet album a été publié l’année suivante[4]. 
-Sorti en 2022, À la recherche de lumières (original : bicheul chajaseo) a été sélectionné comme l’un des candidats coréens pour la Biennale d'illustration de Bratislava 2023. La même année, Park a également été choisi comme finaliste du Concours Nami[5].
-Sorti en 2022, Hé, les enfants, jouons ! (original : yaedeura nolja) a été retenu pour une exposition intitulée The BRAW Amazing Bookshelf à la foire du livre de jeunesse de Bologne 2023[6]. Cette exposition consiste à présenter un classement des 100 meilleurs livres parmi tous les titres en compétition pour la foire de Bologne. Lors de l’édition 2023 de cet évènement, Park a également fait partie des 30 illustrateurs sélectionnés pour l’exposition intitulée Italian Excellence[6]. Il a travaillé comme illustrateur en collaboration avec Benetton Kids[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier album, Tellement de neige (original : eomcheongnan nun), a obtenu la mention spéciale du Prix BolognaRagazzi dans la catégorie Opera Prima (Première œuvre) à la foire du livre de jeunesse de Bologne en 2021,. Cet album a également fait partie d’une sélection coréenne pour Silent Books 2023 de l’Union Internationale du livre de jeunesse (IBBY). 
+Pour Un vol dans une ville (original : dosibihaeng), Park a été retenu pour l’« Illustrateur de l’année » à la foire du livre de jeunesse de Bologne en 2022 et cet album a été publié l’année suivante. 
+Sorti en 2022, À la recherche de lumières (original : bicheul chajaseo) a été sélectionné comme l’un des candidats coréens pour la Biennale d'illustration de Bratislava 2023. La même année, Park a également été choisi comme finaliste du Concours Nami.
+Sorti en 2022, Hé, les enfants, jouons ! (original : yaedeura nolja) a été retenu pour une exposition intitulée The BRAW Amazing Bookshelf à la foire du livre de jeunesse de Bologne 2023. Cette exposition consiste à présenter un classement des 100 meilleurs livres parmi tous les titres en compétition pour la foire de Bologne. Lors de l’édition 2023 de cet évènement, Park a également fait partie des 30 illustrateurs sélectionnés pour l’exposition intitulée Italian Excellence. Il a travaillé comme illustrateur en collaboration avec Benetton Kids.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2021 : Mention spéciale dans la catégorie Opera Prima du Prix BolognaRagazzi de la Foire du livre de jeunesse de Bologne, pour Tellement de neige (original : eomcheongnan nun)[1],[2]
-2022 : Illustrateur gagnant pour l’exposition des illustrateurs à la foire du livre de jeunesse de Bologne, pour Un vol dans une ville (original : dosibihaeng)[4]
-2023 : Sélectionné pour l’exposition intitulée The BRAW Amazing Bookshelf à la foire du livre de jeunesse de Bologne, pour Hé, les enfants, jouons ! (original : yaedeura nolja)[6]
-2023 : Finaliste du Concours Nami, catégorie illustrateur, pour À la recherche de lumières (original : bicheul chajaseo)[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2021 : Mention spéciale dans la catégorie Opera Prima du Prix BolognaRagazzi de la Foire du livre de jeunesse de Bologne, pour Tellement de neige (original : eomcheongnan nun),
+2022 : Illustrateur gagnant pour l’exposition des illustrateurs à la foire du livre de jeunesse de Bologne, pour Un vol dans une ville (original : dosibihaeng)
+2023 : Sélectionné pour l’exposition intitulée The BRAW Amazing Bookshelf à la foire du livre de jeunesse de Bologne, pour Hé, les enfants, jouons ! (original : yaedeura nolja)
+2023 : Finaliste du Concours Nami, catégorie illustrateur, pour À la recherche de lumières (original : bicheul chajaseo)</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tellement de neige (original : eomcheongnan nun), Dalgrimm (Corée du Sud), 2020,  (ISBN 9791197092398)
 So Much Snow, Sourcebooks (États-Unis), 2022,  (ISBN 9781728260044)
